--- a/data/trans_orig/P6606-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>259693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241634</v>
+        <v>241434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>275567</v>
+        <v>275230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7285027371614767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6778414954395132</v>
+        <v>0.6772830801463838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7730329416439612</v>
+        <v>0.7720891108286023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -765,19 +765,19 @@
         <v>180618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>169209</v>
+        <v>168270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190316</v>
+        <v>190827</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8441565882501524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7908337246518398</v>
+        <v>0.78644600048736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8894798203064503</v>
+        <v>0.8918707043350798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>423</v>
@@ -786,19 +786,19 @@
         <v>440311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>418015</v>
+        <v>419497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>460712</v>
+        <v>459450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7718827601295387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7327969234670393</v>
+        <v>0.7353950522837952</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8076453678053368</v>
+        <v>0.8054335374652185</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>63403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50319</v>
+        <v>50621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79420</v>
+        <v>80024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1778621639041406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1411568044512777</v>
+        <v>0.1420049180975582</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.222791882702205</v>
+        <v>0.2244878921436567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -836,19 +836,19 @@
         <v>22336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13936</v>
+        <v>14253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32939</v>
+        <v>32127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1043917625215917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06513474475450642</v>
+        <v>0.06661369126015951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1539488973606083</v>
+        <v>0.1501534068705883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -857,19 +857,19 @@
         <v>85739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70224</v>
+        <v>70078</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104573</v>
+        <v>104796</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.150304519524413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1231057673794831</v>
+        <v>0.1228488335645356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1833208640920377</v>
+        <v>0.1837110440952067</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>24306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15968</v>
+        <v>15939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35221</v>
+        <v>34313</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06818458526767196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04479402142761062</v>
+        <v>0.04471366236804994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09880411933839062</v>
+        <v>0.09625564870210374</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -910,16 +910,16 @@
         <v>2079</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13804</v>
+        <v>13214</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02719417813923684</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009716714273804385</v>
+        <v>0.009717913889716105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06451806239360282</v>
+        <v>0.06175749313809581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -928,19 +928,19 @@
         <v>30125</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21126</v>
+        <v>21142</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43239</v>
+        <v>42658</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05280969903635792</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0370342034152684</v>
+        <v>0.03706220737793552</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07580049592588063</v>
+        <v>0.07478144918375436</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>9072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4466</v>
+        <v>4389</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17660</v>
+        <v>16609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02545051366671069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01252921516300114</v>
+        <v>0.0123111732404222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04954178541291113</v>
+        <v>0.04659300809946492</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>5190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1940</v>
+        <v>1954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11615</v>
+        <v>11491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02425747108901898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00906566960972865</v>
+        <v>0.009132817596862053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05428556248344656</v>
+        <v>0.05370700428525137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -999,19 +999,19 @@
         <v>14263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8486</v>
+        <v>7828</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24749</v>
+        <v>22498</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02500302130969043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0148756350677622</v>
+        <v>0.01372199771877838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04338569485406015</v>
+        <v>0.03943951147582841</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>214291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>199928</v>
+        <v>199475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>227041</v>
+        <v>227378</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7939341526204057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7407211720373211</v>
+        <v>0.7390423503482401</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8411714012632991</v>
+        <v>0.8424227399408121</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>215</v>
@@ -1124,19 +1124,19 @@
         <v>218114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>209514</v>
+        <v>209455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>223677</v>
+        <v>223870</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9440111708268104</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9067910556744133</v>
+        <v>0.9065345456274664</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9680888551615267</v>
+        <v>0.9689231921566981</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>419</v>
@@ -1145,19 +1145,19 @@
         <v>432405</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>416555</v>
+        <v>414305</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>446479</v>
+        <v>448445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8631517964102222</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8315141242545127</v>
+        <v>0.8270223254817826</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8912466638923684</v>
+        <v>0.8951707797606538</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>31181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21451</v>
+        <v>21375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42683</v>
+        <v>43596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1155224158212879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07947345071946801</v>
+        <v>0.07919130398083632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1581369031244675</v>
+        <v>0.1615202876344805</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1195,19 +1195,19 @@
         <v>7868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3851</v>
+        <v>3796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15369</v>
+        <v>15498</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03405120448590446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0166653760278552</v>
+        <v>0.01643017007598168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06651625912078561</v>
+        <v>0.06707731571385352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1216,19 +1216,19 @@
         <v>39048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27592</v>
+        <v>27682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52910</v>
+        <v>53064</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07794674065974094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05507748253365442</v>
+        <v>0.05525805430801854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1056175427355045</v>
+        <v>0.1059237647193626</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>21599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13397</v>
+        <v>13220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32233</v>
+        <v>32396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08002127753280942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04963547689830489</v>
+        <v>0.04898011627489655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1194211747136103</v>
+        <v>0.1200235807817439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1266,19 +1266,19 @@
         <v>3204</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9120</v>
+        <v>9646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01386842554777392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00409195778944418</v>
+        <v>0.004030033811906714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03947107640221275</v>
+        <v>0.04174959736556714</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1287,19 +1287,19 @@
         <v>24803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16183</v>
+        <v>15862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36001</v>
+        <v>36406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04951064639751392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03230411657888523</v>
+        <v>0.03166384870440617</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07186439846704115</v>
+        <v>0.07267329098072121</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>2840</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7227</v>
+        <v>6935</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01052215402549704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003255969025052445</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02677507010389975</v>
+        <v>0.02569206248463151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6844</v>
+        <v>6490</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0080691991395112</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02962047914404276</v>
+        <v>0.02809038288636592</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1358,19 +1358,19 @@
         <v>4704</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1869</v>
+        <v>1748</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10608</v>
+        <v>9751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009390816532522972</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003731114859089897</v>
+        <v>0.003489451943020546</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02117587479367768</v>
+        <v>0.01946531335556919</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>140149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121662</v>
+        <v>121914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159643</v>
+        <v>160358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3696326891216185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3208742811161714</v>
+        <v>0.3215401856931068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4210468198768997</v>
+        <v>0.4229331549585867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -1483,19 +1483,19 @@
         <v>42123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34739</v>
+        <v>34578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47694</v>
+        <v>48345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7414013465190391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6114248605509743</v>
+        <v>0.6085978421468771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8394473164532888</v>
+        <v>0.8509088362819207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -1504,19 +1504,19 @@
         <v>182272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163037</v>
+        <v>159799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203142</v>
+        <v>202349</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4180816039643233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3739604160114561</v>
+        <v>0.3665342975235553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4659510339092159</v>
+        <v>0.4641309168645247</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>111336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93475</v>
+        <v>94255</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>128739</v>
+        <v>130218</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2936399048130595</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2465348194930212</v>
+        <v>0.2485897206743976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.339541220378949</v>
+        <v>0.3434418296015478</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -1554,19 +1554,19 @@
         <v>11670</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6584</v>
+        <v>6704</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19187</v>
+        <v>19471</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2054015603312378</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1158876612414478</v>
+        <v>0.1180000388835771</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3377011920300823</v>
+        <v>0.3426967483390371</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>119</v>
@@ -1575,19 +1575,19 @@
         <v>123006</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>103767</v>
+        <v>104492</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>142585</v>
+        <v>141598</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2821406782037249</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2380115461695307</v>
+        <v>0.2396747610042411</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3270510289335882</v>
+        <v>0.3247852021272673</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>102953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86675</v>
+        <v>85930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123045</v>
+        <v>119822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.271531342552016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2285999867568693</v>
+        <v>0.2266346146986966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3245224377359434</v>
+        <v>0.3160226681192854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>3022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7205</v>
+        <v>8872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05319709314972312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01628138236476902</v>
+        <v>0.01629266883548966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1268051138225293</v>
+        <v>0.1561550944012105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -1646,19 +1646,19 @@
         <v>105975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89038</v>
+        <v>89263</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125391</v>
+        <v>124884</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2430780094211662</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2042277169682027</v>
+        <v>0.2047433719511322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2876116236789391</v>
+        <v>0.2864486511464678</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>24720</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15872</v>
+        <v>16088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35532</v>
+        <v>36754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06519606351330601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04186027472887301</v>
+        <v>0.04243055632675539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09371423618433385</v>
+        <v>0.09693735105704321</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1709,19 +1709,19 @@
         <v>24720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15757</v>
+        <v>16965</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34947</v>
+        <v>37594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0566997084107856</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03614197158543819</v>
+        <v>0.03891296531767032</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08015829027681726</v>
+        <v>0.08622996938647495</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>244107</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>216462</v>
+        <v>222083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270759</v>
+        <v>273246</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3455844005194873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3064480017706895</v>
+        <v>0.3144046554451935</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3833168135162765</v>
+        <v>0.3868376316768994</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>185</v>
@@ -1834,19 +1834,19 @@
         <v>197382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178728</v>
+        <v>178065</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213347</v>
+        <v>214322</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6500903360187958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.588652002966786</v>
+        <v>0.5864704223330056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7026735166351327</v>
+        <v>0.7058836833151561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>421</v>
@@ -1855,19 +1855,19 @@
         <v>441488</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>409086</v>
+        <v>407546</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>470419</v>
+        <v>475600</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4371253439948184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.405043637608334</v>
+        <v>0.403518543068977</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4657703819641811</v>
+        <v>0.4709001721023036</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>188280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165773</v>
+        <v>164430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213756</v>
+        <v>211124</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2665499819146188</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2346862681552303</v>
+        <v>0.2327846764757553</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3026172785114581</v>
+        <v>0.2988899215487417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1905,19 +1905,19 @@
         <v>78548</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63427</v>
+        <v>63121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95669</v>
+        <v>94822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2587024835767163</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2089011732238335</v>
+        <v>0.2078940047074862</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.315093384420483</v>
+        <v>0.3123043330530454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>251</v>
@@ -1926,19 +1926,19 @@
         <v>266828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239686</v>
+        <v>238976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>296178</v>
+        <v>298060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2641908574509371</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.237316920353302</v>
+        <v>0.2366142953967519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2932510750353923</v>
+        <v>0.2951145125001973</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>205409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>180948</v>
+        <v>181579</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>232902</v>
+        <v>230756</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2907996686416985</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2561705347329817</v>
+        <v>0.2570638449239351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3297223879754617</v>
+        <v>0.3266840320603885</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -1976,19 +1976,19 @@
         <v>17093</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10483</v>
+        <v>10258</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26916</v>
+        <v>26048</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05629752464113515</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03452676110189584</v>
+        <v>0.03378702099250792</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.088650870785304</v>
+        <v>0.0857924213432779</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>216</v>
@@ -1997,19 +1997,19 @@
         <v>222502</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>195846</v>
+        <v>198275</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>248000</v>
+        <v>250075</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2203033498307035</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1939107458221142</v>
+        <v>0.1963159645516848</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2455492662277459</v>
+        <v>0.2476036285495654</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>68563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53398</v>
+        <v>53949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85611</v>
+        <v>86093</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09706594892419541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07559619850137451</v>
+        <v>0.07637640657666706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1212002058740197</v>
+        <v>0.1218832895386542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2047,19 +2047,19 @@
         <v>10599</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5391</v>
+        <v>5209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19479</v>
+        <v>18290</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03490965576335268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0177554134014704</v>
+        <v>0.01715623783233646</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06415507972731364</v>
+        <v>0.06023808901738589</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2068,19 +2068,19 @@
         <v>79163</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63855</v>
+        <v>63505</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98531</v>
+        <v>97108</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07838044872354091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06322383779557052</v>
+        <v>0.06287742276990552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09755749215995194</v>
+        <v>0.09614871964047574</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>72236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58664</v>
+        <v>58637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86561</v>
+        <v>86534</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3924123479331581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3186839455316673</v>
+        <v>0.3185381826664764</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4702285367706239</v>
+        <v>0.4700828034398607</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>147</v>
@@ -2193,19 +2193,19 @@
         <v>161127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>148859</v>
+        <v>147428</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>172920</v>
+        <v>171917</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.759082308715595</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.70128690425496</v>
+        <v>0.6945414003753716</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8146387240711498</v>
+        <v>0.8099118597085839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>215</v>
@@ -2214,19 +2214,19 @@
         <v>233364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>213085</v>
+        <v>213393</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>253503</v>
+        <v>254783</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5887837176587533</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5376180140766543</v>
+        <v>0.5383941333959152</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6395948808997711</v>
+        <v>0.6428225568931026</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>39729</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28487</v>
+        <v>28859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52361</v>
+        <v>51278</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2158195945606459</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1547492405358051</v>
+        <v>0.1567693946951218</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2844440207944013</v>
+        <v>0.2785579784561896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2264,19 +2264,19 @@
         <v>37482</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27732</v>
+        <v>27905</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48658</v>
+        <v>51668</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1765796410796227</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1306488616063256</v>
+        <v>0.1314633904225263</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2292304599572264</v>
+        <v>0.2434133263955582</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -2285,19 +2285,19 @@
         <v>77211</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61734</v>
+        <v>61907</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94304</v>
+        <v>94183</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1948045013236811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1557558032459923</v>
+        <v>0.1561926198052097</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.237931646392901</v>
+        <v>0.2376258200747687</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>53118</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40034</v>
+        <v>41255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66223</v>
+        <v>67188</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.288552184979403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2174779050526757</v>
+        <v>0.2241113934624753</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3597460926725146</v>
+        <v>0.3649869706099471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2335,19 +2335,19 @@
         <v>10140</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4839</v>
+        <v>5215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17893</v>
+        <v>18275</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04777104981538704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02279520018923916</v>
+        <v>0.02456970061800195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08429295053710412</v>
+        <v>0.08609260688850541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -2356,19 +2356,19 @@
         <v>63258</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50289</v>
+        <v>48940</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80940</v>
+        <v>79480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1596010126080821</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1268802474678155</v>
+        <v>0.1234776198990739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2042134370284926</v>
+        <v>0.2005289720915427</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>19000</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12027</v>
+        <v>11885</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28561</v>
+        <v>29277</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.103215872526793</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06533289564018589</v>
+        <v>0.06456569437857101</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1551507414946467</v>
+        <v>0.1590401800389943</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2406,19 +2406,19 @@
         <v>3517</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10259</v>
+        <v>9220</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01656700038939527</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004631071652698894</v>
+        <v>0.004581118920838801</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04832854395905597</v>
+        <v>0.04343461001912054</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -2427,19 +2427,19 @@
         <v>22517</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14113</v>
+        <v>14815</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32359</v>
+        <v>33702</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05681076840948355</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03560630244364153</v>
+        <v>0.03737929692058258</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08164186401653183</v>
+        <v>0.08502967568212969</v>
       </c>
     </row>
     <row r="28">
@@ -2531,19 +2531,19 @@
         <v>930476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>882948</v>
+        <v>882114</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>970392</v>
+        <v>974714</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4907614330244799</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4656938123462842</v>
+        <v>0.4652539067310509</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5118146488738594</v>
+        <v>0.5140938477299507</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>762</v>
@@ -2552,19 +2552,19 @@
         <v>799364</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>771157</v>
+        <v>769916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>825017</v>
+        <v>823446</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7854488059337985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7577334577864778</v>
+        <v>0.756514086540484</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8106558293269777</v>
+        <v>0.8091120257026916</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1654</v>
@@ -2573,19 +2573,19 @@
         <v>1729840</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1674140</v>
+        <v>1670455</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1779648</v>
+        <v>1777282</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5936917692505953</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5745750103649325</v>
+        <v>0.5733103166351937</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6107859129286072</v>
+        <v>0.6099742091314001</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>433928</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>400085</v>
+        <v>397389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>476948</v>
+        <v>471726</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2288670910098466</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.211016973455315</v>
+        <v>0.2095951658621758</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2515569272222262</v>
+        <v>0.2488027942937248</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>152</v>
@@ -2623,19 +2623,19 @@
         <v>157903</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>133635</v>
+        <v>134449</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>183962</v>
+        <v>182383</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1551543569548289</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1313084475124416</v>
+        <v>0.1321087841404064</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1807600870639927</v>
+        <v>0.1792082029449186</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>563</v>
@@ -2644,19 +2644,19 @@
         <v>591832</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>551699</v>
+        <v>548647</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>636605</v>
+        <v>640508</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2031202243371305</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1893465743564351</v>
+        <v>0.1882990375456061</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2184866321661768</v>
+        <v>0.219826376410945</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>407384</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>372454</v>
+        <v>370419</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>446645</v>
+        <v>443687</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2148668442898283</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1964438833528467</v>
+        <v>0.1953701761401296</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2355742681804887</v>
+        <v>0.2340139900477154</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -2694,19 +2694,19 @@
         <v>39279</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28963</v>
+        <v>28512</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53892</v>
+        <v>53120</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03859485004390292</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02845903690042401</v>
+        <v>0.02801530362009131</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05295340085746189</v>
+        <v>0.05219542584763644</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -2715,19 +2715,19 @@
         <v>446663</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>406186</v>
+        <v>407085</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>487028</v>
+        <v>484576</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1532974073103749</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.139405628806725</v>
+        <v>0.1397138970410754</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1671508443169393</v>
+        <v>0.1663094899930673</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>124196</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>104854</v>
+        <v>102088</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>148020</v>
+        <v>146621</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06550463167584521</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05530304892797365</v>
+        <v>0.05384413872943174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07807018028424423</v>
+        <v>0.07733229771544331</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -2765,19 +2765,19 @@
         <v>21171</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12994</v>
+        <v>12928</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32069</v>
+        <v>30594</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02080198706746964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01276745341079473</v>
+        <v>0.01270274789301242</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03151107326533203</v>
+        <v>0.03006171051962376</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>144</v>
@@ -2786,19 +2786,19 @@
         <v>145366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>123738</v>
+        <v>122621</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>170534</v>
+        <v>170552</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04989059910189931</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04246774718886809</v>
+        <v>0.04208419254364317</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05852819815099869</v>
+        <v>0.0585345779774305</v>
       </c>
     </row>
     <row r="33">
@@ -3131,19 +3131,19 @@
         <v>176927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>158882</v>
+        <v>156915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>194007</v>
+        <v>193943</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5842983061627693</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5247032025308387</v>
+        <v>0.5182083230069376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6407051994570857</v>
+        <v>0.6404920110371728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -3152,19 +3152,19 @@
         <v>150829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138320</v>
+        <v>137647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163903</v>
+        <v>163324</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7758144286526305</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7114733035260168</v>
+        <v>0.7080083366772368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8430633252929093</v>
+        <v>0.8400832805731467</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>303</v>
@@ -3173,19 +3173,19 @@
         <v>327756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>305222</v>
+        <v>305813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347925</v>
+        <v>351507</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6591819741441877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6138602562343519</v>
+        <v>0.6150488739336042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6997441817570246</v>
+        <v>0.7069482247078908</v>
       </c>
     </row>
     <row r="5">
@@ -3202,19 +3202,19 @@
         <v>85248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69083</v>
+        <v>69831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102661</v>
+        <v>104948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2815290706111188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2281445479177217</v>
+        <v>0.2306168599043884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3390352715344286</v>
+        <v>0.3465875619272117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -3223,19 +3223,19 @@
         <v>37840</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26281</v>
+        <v>26680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50097</v>
+        <v>51938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1946380048162485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1351792802669235</v>
+        <v>0.1372334267456862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2576798723685138</v>
+        <v>0.2671510886915859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -3244,19 +3244,19 @@
         <v>123088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103344</v>
+        <v>102405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143506</v>
+        <v>143858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2475542718477452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2078456257241253</v>
+        <v>0.205957272634121</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2886184379663265</v>
+        <v>0.2893272628230332</v>
       </c>
     </row>
     <row r="6">
@@ -3273,19 +3273,19 @@
         <v>34962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25027</v>
+        <v>25353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48450</v>
+        <v>49888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1154616885058527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08265049339006002</v>
+        <v>0.08372816856246233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1600055056842892</v>
+        <v>0.1647547017748654</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3294,19 +3294,19 @@
         <v>4697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12579</v>
+        <v>12648</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02416112104778976</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009245860263054621</v>
+        <v>0.009219960077880297</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06470381797864315</v>
+        <v>0.06505503283763604</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -3315,19 +3315,19 @@
         <v>39659</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29002</v>
+        <v>28725</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56064</v>
+        <v>52319</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07976275469725594</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0583295080683692</v>
+        <v>0.05777125176018758</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1127557758456894</v>
+        <v>0.1052236362920792</v>
       </c>
     </row>
     <row r="7">
@@ -3344,19 +3344,19 @@
         <v>5666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10652</v>
+        <v>12265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01871093472025916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006406349196779152</v>
+        <v>0.006421255398764696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03517880258579048</v>
+        <v>0.04050594366418101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5403</v>
+        <v>6113</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005386445483331283</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02779058242714334</v>
+        <v>0.03144134049204955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -3386,19 +3386,19 @@
         <v>6713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2955</v>
+        <v>2821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13828</v>
+        <v>12511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01350099931081126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005944024080589704</v>
+        <v>0.005673038713912148</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02781049038897458</v>
+        <v>0.02516224806342337</v>
       </c>
     </row>
     <row r="8">
@@ -3490,19 +3490,19 @@
         <v>149885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132372</v>
+        <v>133178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>165624</v>
+        <v>166561</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5896376125686439</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5207404484280131</v>
+        <v>0.5239143076573648</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.651551636323812</v>
+        <v>0.6552402825701926</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -3511,19 +3511,19 @@
         <v>145702</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>134603</v>
+        <v>133751</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>153378</v>
+        <v>153215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8722855836658618</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8058358962106201</v>
+        <v>0.8007357931815007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9182371016491557</v>
+        <v>0.9172629851716142</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>264</v>
@@ -3532,19 +3532,19 @@
         <v>295588</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>274262</v>
+        <v>276247</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>315606</v>
+        <v>314139</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7017181079600576</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6510897741966802</v>
+        <v>0.6558034192439169</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7492391795586167</v>
+        <v>0.7457581894139078</v>
       </c>
     </row>
     <row r="10">
@@ -3561,19 +3561,19 @@
         <v>75986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61696</v>
+        <v>61830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92333</v>
+        <v>91338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2989247602037732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.242705649849598</v>
+        <v>0.2432363598501643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3632293576011869</v>
+        <v>0.3593168291806441</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3582,19 +3582,19 @@
         <v>14283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7440</v>
+        <v>7804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24043</v>
+        <v>23500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08551200514397163</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04454003335152497</v>
+        <v>0.04671843202669659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1439372112590749</v>
+        <v>0.1406913811231594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3603,19 +3603,19 @@
         <v>90270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73583</v>
+        <v>74184</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108697</v>
+        <v>109212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2142986183033177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1746835268083717</v>
+        <v>0.1761108123016367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2580437275552194</v>
+        <v>0.2592652911358085</v>
       </c>
     </row>
     <row r="11">
@@ -3632,19 +3632,19 @@
         <v>24407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15781</v>
+        <v>15840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37071</v>
+        <v>36398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09601615249146843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06208019062710445</v>
+        <v>0.0623127478220858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1458337258615521</v>
+        <v>0.1431879003064319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -3653,19 +3653,19 @@
         <v>6102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2892</v>
+        <v>2820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13674</v>
+        <v>12374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03653123737594427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01731226764778569</v>
+        <v>0.01688046326704938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08186269819527639</v>
+        <v>0.0740788170885511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -3674,19 +3674,19 @@
         <v>30509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20307</v>
+        <v>20761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42227</v>
+        <v>42404</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07242815810897571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04820800478344237</v>
+        <v>0.04928584201554981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1002455463459209</v>
+        <v>0.1006648906065243</v>
       </c>
     </row>
     <row r="12">
@@ -3703,19 +3703,19 @@
         <v>3920</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8871</v>
+        <v>8921</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01542147473611455</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003858041598688234</v>
+        <v>0.003784465523554188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03489856334188949</v>
+        <v>0.03509343167403223</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4499</v>
+        <v>5274</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005671173814222228</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02693430877967164</v>
+        <v>0.03157232258480346</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3745,19 +3745,19 @@
         <v>4867</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1914</v>
+        <v>1863</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10873</v>
+        <v>10388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01155511562764895</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004542772599107503</v>
+        <v>0.004423288533498634</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02581272745600675</v>
+        <v>0.0246619366516564</v>
       </c>
     </row>
     <row r="13">
@@ -3849,19 +3849,19 @@
         <v>63812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50253</v>
+        <v>50592</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79193</v>
+        <v>79223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2281120115534568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1796427746521576</v>
+        <v>0.1808548540190163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2830944757025252</v>
+        <v>0.2832038211451194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3870,19 +3870,19 @@
         <v>46988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35789</v>
+        <v>36401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57205</v>
+        <v>57791</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4241244295348044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3230363158196381</v>
+        <v>0.3285588255693035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5163379797730328</v>
+        <v>0.5216304144256524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -3891,19 +3891,19 @@
         <v>110800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94378</v>
+        <v>94145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128914</v>
+        <v>128403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2837187031634228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2416681879070953</v>
+        <v>0.2410710721930502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3301018348375235</v>
+        <v>0.3287913692544038</v>
       </c>
     </row>
     <row r="15">
@@ -3920,19 +3920,19 @@
         <v>96781</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82538</v>
+        <v>82946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113047</v>
+        <v>113381</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3459686939823498</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2950508500860007</v>
+        <v>0.2965094956303581</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.404116061670428</v>
+        <v>0.4053092044294356</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>38</v>
@@ -3941,19 +3941,19 @@
         <v>40772</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31302</v>
+        <v>29682</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51451</v>
+        <v>51406</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3680141562822066</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2825400859171998</v>
+        <v>0.2679190192242165</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4644085427598099</v>
+        <v>0.4639996917238293</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>134</v>
@@ -3962,19 +3962,19 @@
         <v>137553</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>120071</v>
+        <v>119730</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>157708</v>
+        <v>158232</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3522227631690475</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3074572005082828</v>
+        <v>0.3065832914839363</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.403832458679576</v>
+        <v>0.4051724307313636</v>
       </c>
     </row>
     <row r="16">
@@ -3991,19 +3991,19 @@
         <v>87911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72170</v>
+        <v>73499</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103161</v>
+        <v>104050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3142601034180239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2579893291408164</v>
+        <v>0.2627393541995979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3687736889163805</v>
+        <v>0.371953576818824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4012,19 +4012,19 @@
         <v>17847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11444</v>
+        <v>11060</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27647</v>
+        <v>27273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1610872219061442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1032953694260555</v>
+        <v>0.09983291797313107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2495472420092337</v>
+        <v>0.2461712194910453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -4033,19 +4033,19 @@
         <v>105758</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88764</v>
+        <v>89316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124350</v>
+        <v>124337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2708065443376422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2272912858135756</v>
+        <v>0.2287062796941442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3184141654996882</v>
+        <v>0.3183810190101657</v>
       </c>
     </row>
     <row r="17">
@@ -4062,19 +4062,19 @@
         <v>31236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21006</v>
+        <v>21590</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43475</v>
+        <v>44154</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1116591910461696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0750913040562486</v>
+        <v>0.07717737428312142</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1554110542768198</v>
+        <v>0.1578384736669292</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4083,19 +4083,19 @@
         <v>5182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11443</v>
+        <v>11159</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04677419227684477</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01795139358424271</v>
+        <v>0.01781478155143086</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1032893960284299</v>
+        <v>0.1007214917589746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -4104,19 +4104,19 @@
         <v>36418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24930</v>
+        <v>25700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50421</v>
+        <v>50168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0932519893298875</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06383522183510351</v>
+        <v>0.06580943288125758</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1291093181702993</v>
+        <v>0.1284623041605168</v>
       </c>
     </row>
     <row r="18">
@@ -4208,19 +4208,19 @@
         <v>102640</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85138</v>
+        <v>84635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123148</v>
+        <v>121750</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2442934155382505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2026363263055788</v>
+        <v>0.201438924440501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2931039816997095</v>
+        <v>0.2897771414088853</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -4229,19 +4229,19 @@
         <v>102033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86206</v>
+        <v>86737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120302</v>
+        <v>119999</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3415099077974463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2885377152431606</v>
+        <v>0.2903152467039432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4026602330360433</v>
+        <v>0.4016448882273661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>188</v>
@@ -4250,19 +4250,19 @@
         <v>204673</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181655</v>
+        <v>181906</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232406</v>
+        <v>233183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2846947090265688</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.252677949730523</v>
+        <v>0.2530268542130665</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3232714892036633</v>
+        <v>0.324351946979685</v>
       </c>
     </row>
     <row r="20">
@@ -4279,19 +4279,19 @@
         <v>132751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114999</v>
+        <v>113851</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151932</v>
+        <v>153984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3159602071389169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2737080273990562</v>
+        <v>0.2709763570089069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3616137247905605</v>
+        <v>0.3664970357949487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -4300,19 +4300,19 @@
         <v>120308</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103775</v>
+        <v>103976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137067</v>
+        <v>139436</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4026787030002026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.347342567629263</v>
+        <v>0.3480131756923003</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4587727208666173</v>
+        <v>0.466702028593345</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>238</v>
@@ -4321,19 +4321,19 @@
         <v>253059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228615</v>
+        <v>227571</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>280536</v>
+        <v>278669</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3519987364124921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3179973540566193</v>
+        <v>0.3165455985180289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3902188128769673</v>
+        <v>0.3876217761081592</v>
       </c>
     </row>
     <row r="21">
@@ -4350,19 +4350,19 @@
         <v>112879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94276</v>
+        <v>96182</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>131810</v>
+        <v>132420</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2686620631507555</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2243852026019751</v>
+        <v>0.2289222717320108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3137197696530502</v>
+        <v>0.3151721003225771</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -4371,19 +4371,19 @@
         <v>53779</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41900</v>
+        <v>41277</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68934</v>
+        <v>67797</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1800005315422838</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1402405699587698</v>
+        <v>0.1381576508739144</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2307252601730097</v>
+        <v>0.2269214613214683</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>159</v>
@@ -4392,19 +4392,19 @@
         <v>166657</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>144325</v>
+        <v>146183</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191744</v>
+        <v>193584</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.231816045809507</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2007526888561903</v>
+        <v>0.203336700396482</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2667106554196504</v>
+        <v>0.269269994662978</v>
       </c>
     </row>
     <row r="22">
@@ -4421,19 +4421,19 @@
         <v>71881</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58104</v>
+        <v>56291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89652</v>
+        <v>89042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.171084314172077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1382924740637139</v>
+        <v>0.1339789238037167</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2133812360203524</v>
+        <v>0.2119278350068758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -4442,19 +4442,19 @@
         <v>22650</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15177</v>
+        <v>14870</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33504</v>
+        <v>33481</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07581085766006725</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05079740788039049</v>
+        <v>0.04976935401206004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1121412445339113</v>
+        <v>0.1120630993388828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -4463,19 +4463,19 @@
         <v>94531</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76813</v>
+        <v>78209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115695</v>
+        <v>112798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.131490508751432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1068448606168483</v>
+        <v>0.1087864430787137</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1609285584057298</v>
+        <v>0.156898710024527</v>
       </c>
     </row>
     <row r="23">
@@ -4567,19 +4567,19 @@
         <v>16769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10255</v>
+        <v>10220</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25673</v>
+        <v>25714</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1096824402314229</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06707325171478253</v>
+        <v>0.06684305811944898</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1679175174283959</v>
+        <v>0.1681908558254361</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -4588,19 +4588,19 @@
         <v>65722</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52794</v>
+        <v>52295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77812</v>
+        <v>78677</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3781991273224608</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.303807891406614</v>
+        <v>0.3009371361902279</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4477755929053183</v>
+        <v>0.4527533368657833</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -4609,19 +4609,19 @@
         <v>82491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66017</v>
+        <v>66713</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98163</v>
+        <v>99237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2525252033946279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2020965188344555</v>
+        <v>0.2042261469769376</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3005026503745274</v>
+        <v>0.3037889472770439</v>
       </c>
     </row>
     <row r="25">
@@ -4638,19 +4638,19 @@
         <v>31845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22730</v>
+        <v>21873</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42393</v>
+        <v>42327</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2082872551247952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.148672447925242</v>
+        <v>0.1430633099182247</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2772795690742441</v>
+        <v>0.2768485425466156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -4659,19 +4659,19 @@
         <v>66962</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53784</v>
+        <v>53903</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80591</v>
+        <v>79999</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3853370237673642</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3095013136346923</v>
+        <v>0.310189025261271</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4637666841016009</v>
+        <v>0.4603613795104185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -4680,19 +4680,19 @@
         <v>98807</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82501</v>
+        <v>83527</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115474</v>
+        <v>117794</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3024723817338402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2525575365989832</v>
+        <v>0.2556979325410525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3534961856898369</v>
+        <v>0.3605981756642847</v>
       </c>
     </row>
     <row r="26">
@@ -4709,19 +4709,19 @@
         <v>51892</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41800</v>
+        <v>40637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64799</v>
+        <v>64431</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3394121860915668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.273400865840233</v>
+        <v>0.2657989977304309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4238348848852358</v>
+        <v>0.4214280738181347</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -4730,19 +4730,19 @@
         <v>23775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15793</v>
+        <v>14838</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34700</v>
+        <v>33768</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1368161426399349</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09088155977221318</v>
+        <v>0.0853881676258991</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1996812317058664</v>
+        <v>0.1943178704240911</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>72</v>
@@ -4751,19 +4751,19 @@
         <v>75667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>60790</v>
+        <v>61569</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91620</v>
+        <v>93441</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2316372132730163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1860952891847296</v>
+        <v>0.1884792999719234</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2804715062984428</v>
+        <v>0.286045916723889</v>
       </c>
     </row>
     <row r="27">
@@ -4780,19 +4780,19 @@
         <v>52382</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39971</v>
+        <v>40435</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>64131</v>
+        <v>64877</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3426181185522151</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2614394352599635</v>
+        <v>0.2644731799457699</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4194642116015936</v>
+        <v>0.4243429093194083</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -4801,19 +4801,19 @@
         <v>17316</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9726</v>
+        <v>9558</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27819</v>
+        <v>27182</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09964770627024011</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0559675234230052</v>
+        <v>0.05500489628258054</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1600847567258617</v>
+        <v>0.1564217701222143</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>61</v>
@@ -4822,19 +4822,19 @@
         <v>69699</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>53541</v>
+        <v>54546</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>86383</v>
+        <v>85156</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2133652015985157</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1639017099418456</v>
+        <v>0.1669803990814649</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2644418592637944</v>
+        <v>0.260683439977988</v>
       </c>
     </row>
     <row r="28">
@@ -4926,19 +4926,19 @@
         <v>510034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474990</v>
+        <v>472170</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>552423</v>
+        <v>548610</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3617822983698981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3369243874761784</v>
+        <v>0.3349238146320892</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.391850239626128</v>
+        <v>0.3891452306223581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>468</v>
@@ -4947,19 +4947,19 @@
         <v>511274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>477641</v>
+        <v>480256</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>544087</v>
+        <v>542976</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5411553852190817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5055563721930764</v>
+        <v>0.5083239632860884</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5758852979706403</v>
+        <v>0.5747097191196137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>938</v>
@@ -4968,19 +4968,19 @@
         <v>1021308</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>969701</v>
+        <v>976011</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1074909</v>
+        <v>1074938</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4337568027007391</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4118389440842612</v>
+        <v>0.4145186821185051</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4565215282962453</v>
+        <v>0.4565337661361022</v>
       </c>
     </row>
     <row r="30">
@@ -4997,19 +4997,19 @@
         <v>422611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>384589</v>
+        <v>386819</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>455467</v>
+        <v>456287</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2997707597191967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2728002103554586</v>
+        <v>0.2743820747265497</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3230760885925671</v>
+        <v>0.323658080007605</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>261</v>
@@ -5018,19 +5018,19 @@
         <v>280166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>252630</v>
+        <v>248544</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>310681</v>
+        <v>307348</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2965399510937738</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2673948379938029</v>
+        <v>0.2630695757241666</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3288383461414632</v>
+        <v>0.3253106702090587</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>660</v>
@@ -5039,19 +5039,19 @@
         <v>702777</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>654054</v>
+        <v>655081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>751608</v>
+        <v>748802</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2984743787877689</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2777813142146201</v>
+        <v>0.2782174331727061</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3192130493643262</v>
+        <v>0.3180214286821</v>
       </c>
     </row>
     <row r="31">
@@ -5068,19 +5068,19 @@
         <v>312051</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>281707</v>
+        <v>281217</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>346264</v>
+        <v>345171</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2213472821162543</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1998230549181995</v>
+        <v>0.1994753415767997</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2456150540910238</v>
+        <v>0.2448401257567873</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>100</v>
@@ -5089,19 +5089,19 @@
         <v>106200</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>88584</v>
+        <v>87239</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>127487</v>
+        <v>124792</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1124066350099222</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09376109102393444</v>
+        <v>0.09233802267837554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1349383817380477</v>
+        <v>0.132084980066917</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>401</v>
@@ -5110,19 +5110,19 @@
         <v>418251</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>382917</v>
+        <v>383544</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454443</v>
+        <v>455763</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1776342077933935</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1626273658721654</v>
+        <v>0.1628937690726787</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1930051082225177</v>
+        <v>0.1935656693411208</v>
       </c>
     </row>
     <row r="32">
@@ -5139,19 +5139,19 @@
         <v>165085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>141703</v>
+        <v>139897</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>190275</v>
+        <v>189854</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1170996597946509</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1005137696213158</v>
+        <v>0.09923289041603606</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1349677486015581</v>
+        <v>0.1346690148114093</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -5160,19 +5160,19 @@
         <v>47143</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35151</v>
+        <v>34988</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62685</v>
+        <v>64259</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04989802867722238</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0372051950439301</v>
+        <v>0.03703305947981651</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06634855794108845</v>
+        <v>0.06801460201838708</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>197</v>
@@ -5181,19 +5181,19 @@
         <v>212228</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>186078</v>
+        <v>182908</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>243736</v>
+        <v>240945</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09013461071809845</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07902859903019639</v>
+        <v>0.07768238623604969</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1035165682516743</v>
+        <v>0.102331135465485</v>
       </c>
     </row>
     <row r="33">
@@ -5526,19 +5526,19 @@
         <v>198391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>181008</v>
+        <v>181577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213385</v>
+        <v>211972</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7186688339590671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6556986014696</v>
+        <v>0.6577596245777156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7729841802056819</v>
+        <v>0.7678687624240752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -5547,19 +5547,19 @@
         <v>163017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150805</v>
+        <v>148666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175253</v>
+        <v>174343</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7611424019378324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7041230725683507</v>
+        <v>0.6941363994449575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8182756680926576</v>
+        <v>0.8140229324629676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>338</v>
@@ -5568,19 +5568,19 @@
         <v>361408</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>339949</v>
+        <v>339827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>379141</v>
+        <v>379812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7372250336301942</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6934514822129368</v>
+        <v>0.6932033216712069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.773398902091888</v>
+        <v>0.7747668113084561</v>
       </c>
     </row>
     <row r="5">
@@ -5597,19 +5597,19 @@
         <v>43695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32704</v>
+        <v>33410</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57016</v>
+        <v>58169</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1582865872163859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1184693528886865</v>
+        <v>0.1210260063769376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2065393472770919</v>
+        <v>0.2107181344791257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -5618,19 +5618,19 @@
         <v>36010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26726</v>
+        <v>26435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47057</v>
+        <v>48127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1681329442232854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.12478729566266</v>
+        <v>0.1234278838687635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.219713885563223</v>
+        <v>0.224709694173047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -5639,19 +5639,19 @@
         <v>79705</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64969</v>
+        <v>63102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96383</v>
+        <v>96655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1625883441760219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1325274059913214</v>
+        <v>0.1287200037703257</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1966086220139147</v>
+        <v>0.1971633520242783</v>
       </c>
     </row>
     <row r="6">
@@ -5668,19 +5668,19 @@
         <v>26288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16831</v>
+        <v>18409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37936</v>
+        <v>37940</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09522743788206241</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06097044306232885</v>
+        <v>0.06668548379643927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1374245927215833</v>
+        <v>0.137437586056838</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5689,19 +5689,19 @@
         <v>13140</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7681</v>
+        <v>7193</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22072</v>
+        <v>21554</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06135159881420049</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0358619320072492</v>
+        <v>0.03358486750403487</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1030574575950327</v>
+        <v>0.1006367749937831</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -5710,19 +5710,19 @@
         <v>39428</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27705</v>
+        <v>27644</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53730</v>
+        <v>53520</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08042748431836642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05651405061017156</v>
+        <v>0.05638966488691437</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1096032453972643</v>
+        <v>0.109173907059851</v>
       </c>
     </row>
     <row r="7">
@@ -5739,19 +5739,19 @@
         <v>7679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2992</v>
+        <v>3012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15960</v>
+        <v>15015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0278171409424846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.010837740210579</v>
+        <v>0.01091248270240924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05781438766080525</v>
+        <v>0.05439019113092619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7081</v>
+        <v>6991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009373055024681594</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03306378871829607</v>
+        <v>0.03264277878618777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5781,19 +5781,19 @@
         <v>9686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4828</v>
+        <v>4668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18501</v>
+        <v>17895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01975913787541748</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00984797342379521</v>
+        <v>0.009522753068547208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03774014026118391</v>
+        <v>0.03650313447375365</v>
       </c>
     </row>
     <row r="8">
@@ -5885,19 +5885,19 @@
         <v>162232</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>145536</v>
+        <v>148306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>175644</v>
+        <v>178407</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6772059647242444</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6075103354422097</v>
+        <v>0.6190745952024038</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7331896720112873</v>
+        <v>0.7447252653154112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>141</v>
@@ -5906,19 +5906,19 @@
         <v>147628</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>135712</v>
+        <v>134442</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>158592</v>
+        <v>158373</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7803754678103356</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7173840372072713</v>
+        <v>0.7106738496186402</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8383292432193109</v>
+        <v>0.8371730839073435</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>288</v>
@@ -5927,19 +5927,19 @@
         <v>309860</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>290789</v>
+        <v>292748</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>328536</v>
+        <v>329837</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7227285142281009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6782448269528426</v>
+        <v>0.6828143174109537</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7662888163741958</v>
+        <v>0.7693233634373919</v>
       </c>
     </row>
     <row r="10">
@@ -5956,19 +5956,19 @@
         <v>45844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34558</v>
+        <v>33913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59132</v>
+        <v>59472</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1913651062941455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1442545255489691</v>
+        <v>0.1415624798311367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2468347965829087</v>
+        <v>0.2482528207846831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -5977,19 +5977,19 @@
         <v>30056</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19962</v>
+        <v>20558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40928</v>
+        <v>41110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1588807381376715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1055207369953497</v>
+        <v>0.108672672207428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2163490713384864</v>
+        <v>0.2173089375335037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -5998,19 +5998,19 @@
         <v>75900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60409</v>
+        <v>59746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92548</v>
+        <v>91592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1770316917358665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.140900981315064</v>
+        <v>0.139353847722005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2158625296764134</v>
+        <v>0.2136314308537079</v>
       </c>
     </row>
     <row r="11">
@@ -6027,19 +6027,19 @@
         <v>24606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16315</v>
+        <v>16004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35480</v>
+        <v>35417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1027149520361504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06810501400282544</v>
+        <v>0.06680755341889738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1481046513724427</v>
+        <v>0.1478415785988716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -6048,19 +6048,19 @@
         <v>10452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4995</v>
+        <v>5549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17893</v>
+        <v>18575</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05525088271724687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02640230250969468</v>
+        <v>0.02933342213716262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09458586169364191</v>
+        <v>0.09818848629905365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -6069,19 +6069,19 @@
         <v>35059</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24761</v>
+        <v>24798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48964</v>
+        <v>48845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08177188862504478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0577539457988637</v>
+        <v>0.05783863338849025</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1142046564859842</v>
+        <v>0.1139283791285919</v>
       </c>
     </row>
     <row r="12">
@@ -6098,19 +6098,19 @@
         <v>6879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2891</v>
+        <v>3006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14006</v>
+        <v>13682</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02871397694545972</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01206592579794695</v>
+        <v>0.0125471858609431</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05846461052357592</v>
+        <v>0.05711195542799438</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4874</v>
+        <v>4920</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005492911334746003</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02576564075920117</v>
+        <v>0.02600874456893397</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -6140,19 +6140,19 @@
         <v>7918</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3888</v>
+        <v>3059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14578</v>
+        <v>15078</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01846790541098776</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009069036369530872</v>
+        <v>0.007136071931109998</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03400190429756944</v>
+        <v>0.03516870249282389</v>
       </c>
     </row>
     <row r="13">
@@ -6244,19 +6244,19 @@
         <v>56190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42996</v>
+        <v>44152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70082</v>
+        <v>69696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2640974819237766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2020880201589622</v>
+        <v>0.2075177141865945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3293927246655429</v>
+        <v>0.3275805635127844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -6265,19 +6265,19 @@
         <v>38824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30479</v>
+        <v>30517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45849</v>
+        <v>46562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5962035067333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4680648790164598</v>
+        <v>0.4686424809011454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7040856379212004</v>
+        <v>0.7150369698536813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -6286,19 +6286,19 @@
         <v>95013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77913</v>
+        <v>78553</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110448</v>
+        <v>113411</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3419227801920222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2803842230631237</v>
+        <v>0.2826886330452619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3974676279968803</v>
+        <v>0.4081321407575582</v>
       </c>
     </row>
     <row r="15">
@@ -6315,19 +6315,19 @@
         <v>76168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>62260</v>
+        <v>61805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>91416</v>
+        <v>90399</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3579991363669521</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2926289746976115</v>
+        <v>0.2904907130677207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4296655959314407</v>
+        <v>0.4248853026497375</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -6336,19 +6336,19 @@
         <v>17715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10748</v>
+        <v>11185</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25104</v>
+        <v>26141</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2720398894454241</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1650477634711014</v>
+        <v>0.1717670728810981</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3855144887121692</v>
+        <v>0.4014457471155099</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>90</v>
@@ -6357,19 +6357,19 @@
         <v>93883</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>78548</v>
+        <v>77462</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>110565</v>
+        <v>108935</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3378555571156616</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2826682307292638</v>
+        <v>0.2787618752363021</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3978885494276433</v>
+        <v>0.3920232891428518</v>
       </c>
     </row>
     <row r="16">
@@ -6386,19 +6386,19 @@
         <v>60185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46784</v>
+        <v>47350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72657</v>
+        <v>73732</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2828748848887877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.219892012723838</v>
+        <v>0.222549810330199</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.341495404340012</v>
+        <v>0.3465471784066898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6407,19 +6407,19 @@
         <v>6705</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2955</v>
+        <v>2808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12762</v>
+        <v>11908</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1029649295785878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04538489797070362</v>
+        <v>0.0431267687575287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1959840265974665</v>
+        <v>0.1828746479335806</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -6428,19 +6428,19 @@
         <v>66890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53412</v>
+        <v>52586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82974</v>
+        <v>83018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2407150175949815</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1922126998003436</v>
+        <v>0.1892414584778363</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2985974147402487</v>
+        <v>0.2987574040116381</v>
       </c>
     </row>
     <row r="17">
@@ -6457,19 +6457,19 @@
         <v>20218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12142</v>
+        <v>12943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30043</v>
+        <v>29720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09502849682048362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05706912623960424</v>
+        <v>0.06083303382673468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1412048598152273</v>
+        <v>0.1396872057243088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6549</v>
+        <v>6786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02879167424268808</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1005683939956897</v>
+        <v>0.1042054280187822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6499,19 +6499,19 @@
         <v>22093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13839</v>
+        <v>14165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32753</v>
+        <v>32369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07950664509733481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04980239861560114</v>
+        <v>0.05097578092848905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1178668747614043</v>
+        <v>0.1164850772758235</v>
       </c>
     </row>
     <row r="18">
@@ -6603,19 +6603,19 @@
         <v>122039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105198</v>
+        <v>101055</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143188</v>
+        <v>141674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2539793615351029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2189327334556503</v>
+        <v>0.2103099309713863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.297994716429174</v>
+        <v>0.2948433355674117</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -6624,19 +6624,19 @@
         <v>134211</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116975</v>
+        <v>116682</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155805</v>
+        <v>154082</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3677604864186151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.320529280166059</v>
+        <v>0.3197270130943516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4269300648080645</v>
+        <v>0.4222085804910878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>249</v>
@@ -6645,19 +6645,19 @@
         <v>256250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>229530</v>
+        <v>226178</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283595</v>
+        <v>281404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3030935141083375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2714887347073147</v>
+        <v>0.2675244957540193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3354375270348506</v>
+        <v>0.3328463036163898</v>
       </c>
     </row>
     <row r="20">
@@ -6674,19 +6674,19 @@
         <v>172711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152286</v>
+        <v>150723</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193486</v>
+        <v>193747</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3594358671745874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3169278460330193</v>
+        <v>0.3136758490228264</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.402670557606548</v>
+        <v>0.403214567072755</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -6695,19 +6695,19 @@
         <v>116711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99893</v>
+        <v>98596</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135765</v>
+        <v>133810</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3198061722592719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2737237322674301</v>
+        <v>0.2701680017652324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3720166640224854</v>
+        <v>0.366661941858087</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>278</v>
@@ -6716,19 +6716,19 @@
         <v>289422</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258878</v>
+        <v>260404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>317239</v>
+        <v>317215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3423295247606393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3062024944152001</v>
+        <v>0.3080068988813252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3752323844848309</v>
+        <v>0.3752032664746694</v>
       </c>
     </row>
     <row r="21">
@@ -6745,19 +6745,19 @@
         <v>116507</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>98293</v>
+        <v>98553</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>135424</v>
+        <v>137764</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2424670550310505</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2045608732017741</v>
+        <v>0.2051035539694236</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2818354596843448</v>
+        <v>0.2867070475192068</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>76</v>
@@ -6766,19 +6766,19 @@
         <v>77096</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>62132</v>
+        <v>61729</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>92855</v>
+        <v>94534</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2112546339764962</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1702513950035713</v>
+        <v>0.1691476872654032</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2544364836478383</v>
+        <v>0.2590379427265056</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>190</v>
@@ -6787,19 +6787,19 @@
         <v>193603</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>171194</v>
+        <v>169759</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>220674</v>
+        <v>221305</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2289940680885953</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2024888088588012</v>
+        <v>0.2007914085466553</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2610146639569466</v>
+        <v>0.2617612085176517</v>
       </c>
     </row>
     <row r="22">
@@ -6816,19 +6816,19 @@
         <v>69249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55468</v>
+        <v>53786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87756</v>
+        <v>87372</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1441177162592592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.115435644388892</v>
+        <v>0.1119366542375393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1826323365326848</v>
+        <v>0.1818327793222562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -6837,19 +6837,19 @@
         <v>36924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25972</v>
+        <v>26811</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50133</v>
+        <v>49724</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1011787073456168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07116663782119213</v>
+        <v>0.07346771434576803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1373723660550814</v>
+        <v>0.1362522178041971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -6858,19 +6858,19 @@
         <v>106174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88316</v>
+        <v>88103</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126097</v>
+        <v>128776</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1255828930424278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1044608413240995</v>
+        <v>0.1042091684451403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1491486376877844</v>
+        <v>0.1523173382040504</v>
       </c>
     </row>
     <row r="23">
@@ -6962,19 +6962,19 @@
         <v>22939</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14804</v>
+        <v>14707</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32786</v>
+        <v>34200</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1188423610237351</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07669652815622238</v>
+        <v>0.07619104637067441</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1698571583873169</v>
+        <v>0.1771816191699647</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -6983,19 +6983,19 @@
         <v>74248</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61427</v>
+        <v>61400</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87567</v>
+        <v>88903</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3776166242795776</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3124130664207018</v>
+        <v>0.3122723255545299</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4453567982834347</v>
+        <v>0.4521537472188366</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -7004,19 +7004,19 @@
         <v>97187</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>79894</v>
+        <v>81314</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115139</v>
+        <v>116711</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2494250487384198</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2050437236717238</v>
+        <v>0.2086885374556545</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2954999105919535</v>
+        <v>0.2995326248081563</v>
       </c>
     </row>
     <row r="25">
@@ -7033,19 +7033,19 @@
         <v>55450</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42677</v>
+        <v>43253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69598</v>
+        <v>69031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.287270474912393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2210972223325834</v>
+        <v>0.2240853278584664</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3605688442806773</v>
+        <v>0.3576312548092304</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -7054,19 +7054,19 @@
         <v>77175</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63437</v>
+        <v>63024</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89969</v>
+        <v>91743</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3925062752094557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3226354884921384</v>
+        <v>0.3205327574162672</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4575736187531155</v>
+        <v>0.4665973816204189</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -7075,19 +7075,19 @@
         <v>132625</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114111</v>
+        <v>115844</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152123</v>
+        <v>151523</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3403745721811773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2928606710728301</v>
+        <v>0.2973076592332303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3904164814043473</v>
+        <v>0.3888771670769445</v>
       </c>
     </row>
     <row r="26">
@@ -7104,19 +7104,19 @@
         <v>57907</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45142</v>
+        <v>46208</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71827</v>
+        <v>71660</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2999995482637869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2338678799616009</v>
+        <v>0.2393946027713119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3721194522070566</v>
+        <v>0.3712548535366366</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -7125,19 +7125,19 @@
         <v>26409</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18306</v>
+        <v>17090</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35508</v>
+        <v>36454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1343160855618094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09310276824095806</v>
+        <v>0.08691629762245742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1805889208731146</v>
+        <v>0.185399921077116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -7146,19 +7146,19 @@
         <v>84316</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68215</v>
+        <v>68003</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101799</v>
+        <v>101069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2163923471561959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1750706726332642</v>
+        <v>0.1745254431456387</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2612613574226696</v>
+        <v>0.2593895128195322</v>
       </c>
     </row>
     <row r="27">
@@ -7175,19 +7175,19 @@
         <v>56727</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>43197</v>
+        <v>44514</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70614</v>
+        <v>69724</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2938876158000849</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2237957229083986</v>
+        <v>0.2306146538990763</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.365832650865497</v>
+        <v>0.3612208071292075</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -7196,19 +7196,19 @@
         <v>18789</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11065</v>
+        <v>11963</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27861</v>
+        <v>28717</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09556101494915729</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05627397931686577</v>
+        <v>0.06084190800197207</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1417006685465942</v>
+        <v>0.1460498630937721</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>69</v>
@@ -7217,19 +7217,19 @@
         <v>75516</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>60211</v>
+        <v>61300</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>92834</v>
+        <v>91762</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.193808031924207</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1545297482289594</v>
+        <v>0.1573225369389504</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2382547184065164</v>
+        <v>0.2355031693450289</v>
       </c>
     </row>
     <row r="28">
@@ -7321,19 +7321,19 @@
         <v>561790</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>528007</v>
+        <v>521231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>600508</v>
+        <v>596824</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4007339139700258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3766359891446943</v>
+        <v>0.3718026201139298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4283518736623667</v>
+        <v>0.4257244723637947</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>542</v>
@@ -7342,19 +7342,19 @@
         <v>557928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>525827</v>
+        <v>526411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>589785</v>
+        <v>589875</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5416607774712179</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5104959371007399</v>
+        <v>0.5110631114128653</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5725888286922707</v>
+        <v>0.5726767200237101</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1056</v>
@@ -7363,19 +7363,19 @@
         <v>1119718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1071656</v>
+        <v>1069724</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1172688</v>
+        <v>1169750</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4604226660798771</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4406598190971323</v>
+        <v>0.4398657164530111</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.482203852034541</v>
+        <v>0.480995711526604</v>
       </c>
     </row>
     <row r="30">
@@ -7392,19 +7392,19 @@
         <v>393868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>360441</v>
+        <v>358011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>431103</v>
+        <v>429528</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2809524672297591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2571083442521894</v>
+        <v>0.2553751541107379</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3075129004028994</v>
+        <v>0.3063894424652656</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -7413,19 +7413,19 @@
         <v>277667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>249583</v>
+        <v>248752</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>306241</v>
+        <v>303814</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2695710726077609</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2423056498216752</v>
+        <v>0.2414991973745895</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.29731253945284</v>
+        <v>0.2949555063292259</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>643</v>
@@ -7434,19 +7434,19 @@
         <v>671535</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>628177</v>
+        <v>628286</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>714698</v>
+        <v>716440</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2761319438364239</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2583034592520575</v>
+        <v>0.2583482843887681</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2938805075125157</v>
+        <v>0.294596788849178</v>
       </c>
     </row>
     <row r="31">
@@ -7463,19 +7463,19 @@
         <v>285493</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>255614</v>
+        <v>257256</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>315693</v>
+        <v>320324</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2036464170463528</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1823333772297378</v>
+        <v>0.1835047672605604</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2251889455626442</v>
+        <v>0.2284923999043774</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>133</v>
@@ -7484,19 +7484,19 @@
         <v>133802</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>113468</v>
+        <v>113995</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156570</v>
+        <v>155509</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1299008788118563</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1101599531509145</v>
+        <v>0.1106711403617634</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1520052887709481</v>
+        <v>0.1509752405315317</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>405</v>
@@ -7505,19 +7505,19 @@
         <v>419294</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>381091</v>
+        <v>384968</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>458423</v>
+        <v>460194</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1724119239090725</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1567026751009007</v>
+        <v>0.1582969383028607</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1885016153346878</v>
+        <v>0.1892295549491991</v>
       </c>
     </row>
     <row r="32">
@@ -7534,19 +7534,19 @@
         <v>160752</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>140068</v>
+        <v>134988</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>187263</v>
+        <v>185442</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1146672017538623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09991261708730485</v>
+        <v>0.09628929513237668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1335779140856271</v>
+        <v>0.1322787498442992</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -7555,19 +7555,19 @@
         <v>60635</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47360</v>
+        <v>46449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>77582</v>
+        <v>77554</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.058867271109165</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04597956510344004</v>
+        <v>0.04509507887130035</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0753199267981343</v>
+        <v>0.07529324258361725</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>206</v>
@@ -7576,19 +7576,19 @@
         <v>221387</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>192064</v>
+        <v>191540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>250999</v>
+        <v>248230</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09103346617462649</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07897580055098534</v>
+        <v>0.07876035570589328</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1032095396348019</v>
+        <v>0.1020712266970948</v>
       </c>
     </row>
     <row r="33">
@@ -7921,19 +7921,19 @@
         <v>152323</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137298</v>
+        <v>138273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163714</v>
+        <v>163662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7796224456171348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.702720671536154</v>
+        <v>0.7077142904964808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8379282216687882</v>
+        <v>0.8376623975209978</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -7942,19 +7942,19 @@
         <v>128755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120227</v>
+        <v>119496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136071</v>
+        <v>136634</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8052353671892982</v>
+        <v>0.8052353671892983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7519013776224146</v>
+        <v>0.747332264501531</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.850991209431666</v>
+        <v>0.8545133793132461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>301</v>
@@ -7963,19 +7963,19 @@
         <v>281077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265128</v>
+        <v>264902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295183</v>
+        <v>294091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7911498787549379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7462563854564462</v>
+        <v>0.7456203087122668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.83085211669406</v>
+        <v>0.8277799248462839</v>
       </c>
     </row>
     <row r="5">
@@ -7992,19 +7992,19 @@
         <v>27369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17979</v>
+        <v>17340</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39617</v>
+        <v>38326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1400794253681125</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09201884743684682</v>
+        <v>0.08874858650335803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2027711552803903</v>
+        <v>0.1961606133099417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -8013,19 +8013,19 @@
         <v>22009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15882</v>
+        <v>15093</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29929</v>
+        <v>30139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1376454484963203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09932737335480166</v>
+        <v>0.09439231466432565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1871795511258565</v>
+        <v>0.1884909838193547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -8034,19 +8034,19 @@
         <v>49378</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37254</v>
+        <v>37770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63319</v>
+        <v>63007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1389839819775765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1048596826719733</v>
+        <v>0.1063108839966869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1782245236570408</v>
+        <v>0.1773463095772948</v>
       </c>
     </row>
     <row r="6">
@@ -8063,19 +8063,19 @@
         <v>11677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5762</v>
+        <v>5932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21627</v>
+        <v>21833</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05976670566209024</v>
+        <v>0.05976670566209023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02949048301707985</v>
+        <v>0.03036271830214453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1106910294262687</v>
+        <v>0.1117442622304464</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -8084,19 +8084,19 @@
         <v>4842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2130</v>
+        <v>2169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9223</v>
+        <v>9786</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03028144596374486</v>
+        <v>0.03028144596374487</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01332337346651702</v>
+        <v>0.01356622406829449</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05768386679590497</v>
+        <v>0.06120294316055936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -8105,19 +8105,19 @@
         <v>16519</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9207</v>
+        <v>9325</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25433</v>
+        <v>26404</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04649647568204629</v>
+        <v>0.04649647568204628</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02591429151327481</v>
+        <v>0.02624576682795406</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07158746659816154</v>
+        <v>0.07432020224852101</v>
       </c>
     </row>
     <row r="7">
@@ -8134,19 +8134,19 @@
         <v>4011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10924</v>
+        <v>11144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02053142335266235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005108177110411862</v>
+        <v>0.00504381586097506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05591006693709064</v>
+        <v>0.05703782509529898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -8155,19 +8155,19 @@
         <v>4291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1428</v>
+        <v>1578</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8658</v>
+        <v>9108</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02683773835063652</v>
+        <v>0.02683773835063653</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008932845745677568</v>
+        <v>0.009868507787500857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05414932853759051</v>
+        <v>0.05696471879082991</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -8176,19 +8176,19 @@
         <v>8303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3705</v>
+        <v>3834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16056</v>
+        <v>16303</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0233696635854392</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01042970568761363</v>
+        <v>0.01079055789681802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04519335914084513</v>
+        <v>0.04588807316847029</v>
       </c>
     </row>
     <row r="8">
@@ -8280,19 +8280,19 @@
         <v>117172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>102678</v>
+        <v>102315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>129834</v>
+        <v>128786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7095204432116996</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6217569188497143</v>
+        <v>0.6195593233464238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7861949802780581</v>
+        <v>0.7798508947723117</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>135</v>
@@ -8301,19 +8301,19 @@
         <v>100223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91362</v>
+        <v>90956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107709</v>
+        <v>107606</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8070838621576842</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7357244958588786</v>
+        <v>0.7324592440498433</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8673672467892913</v>
+        <v>0.8665392015519802</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>236</v>
@@ -8322,19 +8322,19 @@
         <v>217394</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200906</v>
+        <v>199781</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>231562</v>
+        <v>231479</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.751395397440334</v>
+        <v>0.7513953974403339</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6944054873358212</v>
+        <v>0.6905179576896416</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.800363535072827</v>
+        <v>0.8000771436880887</v>
       </c>
     </row>
     <row r="10">
@@ -8351,19 +8351,19 @@
         <v>30581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20447</v>
+        <v>21199</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44645</v>
+        <v>43785</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1851825651896242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1238166863266411</v>
+        <v>0.1283662639154067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2703458058267923</v>
+        <v>0.2651384640549172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -8372,19 +8372,19 @@
         <v>15092</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9096</v>
+        <v>8676</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22620</v>
+        <v>22394</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1215352429337657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07325117957810619</v>
+        <v>0.06986798464837231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1821590315439307</v>
+        <v>0.1803353446282276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -8393,19 +8393,19 @@
         <v>45674</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34488</v>
+        <v>34899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60178</v>
+        <v>62147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.157864655105776</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1192023814949244</v>
+        <v>0.1206230814903386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2079971172952281</v>
+        <v>0.2148018278530963</v>
       </c>
     </row>
     <row r="11">
@@ -8422,19 +8422,19 @@
         <v>11979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6217</v>
+        <v>6481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20513</v>
+        <v>20578</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07253863591629987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03764587005722802</v>
+        <v>0.03924542542635168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1242129840331588</v>
+        <v>0.1246055159553463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -8443,19 +8443,19 @@
         <v>4577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1737</v>
+        <v>1544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9619</v>
+        <v>9349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03685659197835569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01398550190819867</v>
+        <v>0.01243032139580856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0774599941257588</v>
+        <v>0.07528449836842001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -8464,19 +8464,19 @@
         <v>16556</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10256</v>
+        <v>10258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26291</v>
+        <v>27024</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05722363391219036</v>
+        <v>0.05722363391219035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03544722774696833</v>
+        <v>0.03545708644367609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09087102714752146</v>
+        <v>0.0934036614966083</v>
       </c>
     </row>
     <row r="12">
@@ -8493,19 +8493,19 @@
         <v>5410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16546</v>
+        <v>16197</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03275835568237623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005864152698935751</v>
+        <v>0.005770630100675471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1001900486240199</v>
+        <v>0.09807813791717025</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -8514,19 +8514,19 @@
         <v>4287</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1492</v>
+        <v>1086</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11561</v>
+        <v>11405</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03452430293019452</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01201238727142582</v>
+        <v>0.008746722080452228</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09310031331565308</v>
+        <v>0.09184448273432623</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -8535,19 +8535,19 @@
         <v>9697</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4264</v>
+        <v>4179</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21880</v>
+        <v>22125</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03351631354169966</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01473965970359406</v>
+        <v>0.01444293853307769</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07562657692425669</v>
+        <v>0.07647067408812917</v>
       </c>
     </row>
     <row r="13">
@@ -8639,19 +8639,19 @@
         <v>27514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18058</v>
+        <v>17780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39308</v>
+        <v>38988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1967617340068911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1291400492992049</v>
+        <v>0.1271525746081111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2811089442795665</v>
+        <v>0.2788213140081277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -8660,19 +8660,19 @@
         <v>27268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20935</v>
+        <v>20774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33445</v>
+        <v>33380</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5599126690422813</v>
+        <v>0.5599126690422814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.429871258390908</v>
+        <v>0.4265758104261245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6867649299698736</v>
+        <v>0.6854278246597055</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -8681,19 +8681,19 @@
         <v>54781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42011</v>
+        <v>42834</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68208</v>
+        <v>68893</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2905672590793169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2228319644651194</v>
+        <v>0.2271958104526568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3617863303138801</v>
+        <v>0.3654156567714225</v>
       </c>
     </row>
     <row r="15">
@@ -8710,19 +8710,19 @@
         <v>39104</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28254</v>
+        <v>28818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52278</v>
+        <v>52022</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2796483641568693</v>
+        <v>0.2796483641568692</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.202053344074765</v>
+        <v>0.2060866208946548</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3738593681724953</v>
+        <v>0.372032130724418</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -8731,19 +8731,19 @@
         <v>15986</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10866</v>
+        <v>10597</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22285</v>
+        <v>22374</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3282618535231165</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2231192568473382</v>
+        <v>0.2175901190002628</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.457599272525492</v>
+        <v>0.45941930924166</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>62</v>
@@ -8752,19 +8752,19 @@
         <v>55090</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>43438</v>
+        <v>43299</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>69303</v>
+        <v>68569</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2922057155379394</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2303991175582306</v>
+        <v>0.229666365284135</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3675944859807121</v>
+        <v>0.3636974602641193</v>
       </c>
     </row>
     <row r="16">
@@ -8781,19 +8781,19 @@
         <v>49586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37806</v>
+        <v>37909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61089</v>
+        <v>62838</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3546105171901062</v>
+        <v>0.3546105171901061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2703639452994112</v>
+        <v>0.2711059647665303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4368712688040525</v>
+        <v>0.4493845204778688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -8802,19 +8802,19 @@
         <v>5446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2665</v>
+        <v>2628</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10354</v>
+        <v>10261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1118254774346021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05472745576458309</v>
+        <v>0.05397037610671965</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.212603039895615</v>
+        <v>0.210706986426034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -8823,19 +8823,19 @@
         <v>55032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42596</v>
+        <v>42104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69286</v>
+        <v>68160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2918967088619645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2259352078756222</v>
+        <v>0.2233234456906684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3675040975492865</v>
+        <v>0.3615296893100789</v>
       </c>
     </row>
     <row r="17">
@@ -8852,19 +8852,19 @@
         <v>23629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13870</v>
+        <v>13522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36748</v>
+        <v>36687</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1689793846461337</v>
+        <v>0.1689793846461336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09919154417553103</v>
+        <v>0.09670325145265019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2628018310004637</v>
+        <v>0.2623653451248107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -8886,19 +8886,19 @@
         <v>23629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14208</v>
+        <v>13625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38211</v>
+        <v>37362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.125330316520779</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07536165943091969</v>
+        <v>0.0722697408121265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2026756901221269</v>
+        <v>0.1981749705474525</v>
       </c>
     </row>
     <row r="18">
@@ -8990,19 +8990,19 @@
         <v>64741</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50112</v>
+        <v>48815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81372</v>
+        <v>83762</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2236939399823964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1731466267993504</v>
+        <v>0.1686655961541861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.281157755906856</v>
+        <v>0.2894158164419558</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -9011,19 +9011,19 @@
         <v>65268</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52397</v>
+        <v>53524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78403</v>
+        <v>78047</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2974887382796197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2388239791967937</v>
+        <v>0.2439618080141486</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3573606550086171</v>
+        <v>0.3557394603897359</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -9032,19 +9032,19 @@
         <v>130009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110245</v>
+        <v>111203</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150762</v>
+        <v>152259</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2555134054861122</v>
+        <v>0.2555134054861123</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.216670965774642</v>
+        <v>0.2185526918878737</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2963017645462686</v>
+        <v>0.2992423847683489</v>
       </c>
     </row>
     <row r="20">
@@ -9061,19 +9061,19 @@
         <v>100420</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82840</v>
+        <v>81691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118545</v>
+        <v>119328</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3469726185422636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2862288210552862</v>
+        <v>0.2822586492433421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4095960904926187</v>
+        <v>0.4123019205162792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -9082,19 +9082,19 @@
         <v>82987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71581</v>
+        <v>69904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96582</v>
+        <v>95359</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3782532332712051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3262645186536486</v>
+        <v>0.318623050546807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4402181074475295</v>
+        <v>0.4346454152357007</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -9103,19 +9103,19 @@
         <v>183407</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162961</v>
+        <v>159778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>205481</v>
+        <v>205646</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3604604586647296</v>
+        <v>0.3604604586647298</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3202769845064081</v>
+        <v>0.3140205803438895</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4038429712132012</v>
+        <v>0.4041670942701971</v>
       </c>
     </row>
     <row r="21">
@@ -9132,19 +9132,19 @@
         <v>87809</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69825</v>
+        <v>71573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>108158</v>
+        <v>108813</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3033987548508352</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2412600175862007</v>
+        <v>0.247299967273463</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3737073246772645</v>
+        <v>0.3759693051855147</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -9153,19 +9153,19 @@
         <v>42406</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32639</v>
+        <v>32627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53169</v>
+        <v>53811</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1932845750067842</v>
+        <v>0.1932845750067841</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1487668210434853</v>
+        <v>0.1487147657306129</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2423423583652564</v>
+        <v>0.2452681491460494</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>130</v>
@@ -9174,19 +9174,19 @@
         <v>130215</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>109880</v>
+        <v>110527</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>152289</v>
+        <v>153540</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2559187911153751</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2159526880083071</v>
+        <v>0.2172241812156078</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2993016874609934</v>
+        <v>0.3017607809135937</v>
       </c>
     </row>
     <row r="22">
@@ -9203,19 +9203,19 @@
         <v>36448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24975</v>
+        <v>25160</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51022</v>
+        <v>50550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1259346866245049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08629396607983353</v>
+        <v>0.08693155072289319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1762917676313696</v>
+        <v>0.1746611500722201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -9224,19 +9224,19 @@
         <v>28735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20363</v>
+        <v>21125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38607</v>
+        <v>39900</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1309734534423909</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09281217271960927</v>
+        <v>0.09628724766483517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1759697417481652</v>
+        <v>0.1818636328014955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -9245,19 +9245,19 @@
         <v>65183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50233</v>
+        <v>51032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82034</v>
+        <v>81637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1281073447337829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0987249711518019</v>
+        <v>0.1002951518341333</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1612262541143142</v>
+        <v>0.160446356934223</v>
       </c>
     </row>
     <row r="23">
@@ -9349,19 +9349,19 @@
         <v>23403</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14519</v>
+        <v>15318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34463</v>
+        <v>35374</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1386830906018414</v>
+        <v>0.1386830906018415</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0860377740474864</v>
+        <v>0.09077338244066668</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2042278182891955</v>
+        <v>0.2096256294796335</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -9370,19 +9370,19 @@
         <v>33743</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25780</v>
+        <v>25841</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42889</v>
+        <v>42662</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2240021273321869</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1711412628186836</v>
+        <v>0.1715429197385729</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2847180903438641</v>
+        <v>0.2832135758976224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -9391,19 +9391,19 @@
         <v>57146</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44238</v>
+        <v>45578</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>71333</v>
+        <v>73988</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1789234310820394</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1385077055214969</v>
+        <v>0.142705912709368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2233445874814031</v>
+        <v>0.2316556952681185</v>
       </c>
     </row>
     <row r="25">
@@ -9420,19 +9420,19 @@
         <v>42288</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29278</v>
+        <v>29984</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58435</v>
+        <v>59835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2505941658917086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1734970539492527</v>
+        <v>0.1776813524303497</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3462842908135305</v>
+        <v>0.3545760715619966</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -9441,19 +9441,19 @@
         <v>66761</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56059</v>
+        <v>55202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77392</v>
+        <v>77745</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4431884815983437</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3721435908729241</v>
+        <v>0.3664575561559235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5137664231639083</v>
+        <v>0.5161072409373935</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -9462,19 +9462,19 @@
         <v>109048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>91373</v>
+        <v>90017</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127507</v>
+        <v>128093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3414304098952612</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2860890392469561</v>
+        <v>0.2818433639414645</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3992246503743239</v>
+        <v>0.4010590451866911</v>
       </c>
     </row>
     <row r="26">
@@ -9491,19 +9491,19 @@
         <v>48047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35352</v>
+        <v>33355</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63259</v>
+        <v>62039</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2847217373927334</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2094962846943644</v>
+        <v>0.1976607832863907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3748662041404753</v>
+        <v>0.3676394267752613</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -9512,19 +9512,19 @@
         <v>32638</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24462</v>
+        <v>24842</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42322</v>
+        <v>43039</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2166661617359059</v>
+        <v>0.2166661617359058</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1623922423988799</v>
+        <v>0.1649132283183494</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2809531545410343</v>
+        <v>0.285716237728755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>79</v>
@@ -9533,19 +9533,19 @@
         <v>80685</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65269</v>
+        <v>63595</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>97541</v>
+        <v>97260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2526236307924208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2043577082383194</v>
+        <v>0.1991150174713625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3053999403485672</v>
+        <v>0.3045203889985874</v>
       </c>
     </row>
     <row r="27">
@@ -9562,19 +9562,19 @@
         <v>55013</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>42169</v>
+        <v>42348</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>71328</v>
+        <v>70240</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3260010061137165</v>
+        <v>0.3260010061137166</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2498885791683884</v>
+        <v>0.2509535325134358</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4226837019837537</v>
+        <v>0.4162393476187279</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -9583,19 +9583,19 @@
         <v>17495</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11175</v>
+        <v>10877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26104</v>
+        <v>26427</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1161432293335636</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07418330859072693</v>
+        <v>0.07220954568003188</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1732876189243781</v>
+        <v>0.1754356794309166</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>64</v>
@@ -9604,19 +9604,19 @@
         <v>72508</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>56011</v>
+        <v>57061</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>88397</v>
+        <v>91876</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2270225282302785</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1753705714484459</v>
+        <v>0.1786572401416358</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2767723116219543</v>
+        <v>0.287663344111295</v>
       </c>
     </row>
     <row r="28">
@@ -9708,19 +9708,19 @@
         <v>385152</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>349785</v>
+        <v>352049</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>419457</v>
+        <v>419544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4018181783001049</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3649204032261114</v>
+        <v>0.3672832891400875</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4376078178599335</v>
+        <v>0.437698837723937</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>469</v>
@@ -9729,19 +9729,19 @@
         <v>355256</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>330505</v>
+        <v>330553</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>379956</v>
+        <v>378801</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5054805633693196</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4702637946486587</v>
+        <v>0.4703312604731482</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5406253279232105</v>
+        <v>0.5389827168593242</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>794</v>
@@ -9750,19 +9750,19 @@
         <v>740408</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>698928</v>
+        <v>699829</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>781810</v>
+        <v>780684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4456714044515911</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4207034532528217</v>
+        <v>0.4212462434831653</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4705923041253036</v>
+        <v>0.4699146777954229</v>
       </c>
     </row>
     <row r="30">
@@ -9779,19 +9779,19 @@
         <v>239762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>209981</v>
+        <v>209170</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>274017</v>
+        <v>269473</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2501371091059966</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2190671180916134</v>
+        <v>0.2182213865120859</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2858737265686315</v>
+        <v>0.281133115032153</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>276</v>
@@ -9800,19 +9800,19 @@
         <v>202835</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>183725</v>
+        <v>182643</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>225113</v>
+        <v>225821</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.288606662418602</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2614151475316026</v>
+        <v>0.2598761365868389</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3203055216269784</v>
+        <v>0.3213126711124635</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>487</v>
@@ -9821,19 +9821,19 @@
         <v>442597</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>403935</v>
+        <v>404981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>480565</v>
+        <v>478843</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2664112284043123</v>
+        <v>0.2664112284043124</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2431391131831541</v>
+        <v>0.2437691917403201</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2892650316909146</v>
+        <v>0.2882282842638015</v>
       </c>
     </row>
     <row r="31">
@@ -9850,19 +9850,19 @@
         <v>209098</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>180460</v>
+        <v>182487</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>238821</v>
+        <v>239084</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2181465184425878</v>
+        <v>0.2181465184425879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1882687005879428</v>
+        <v>0.1903835565041056</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2491553138026435</v>
+        <v>0.2494295217014188</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>118</v>
@@ -9871,19 +9871,19 @@
         <v>89908</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>76868</v>
+        <v>73639</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>107769</v>
+        <v>106706</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1279272107477069</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1093730685297813</v>
+        <v>0.1047775564632914</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1533412243313446</v>
+        <v>0.1518273853368099</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>295</v>
@@ -9892,19 +9892,19 @@
         <v>299007</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>269142</v>
+        <v>268674</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>333534</v>
+        <v>332804</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1799802375786808</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1620037925623506</v>
+        <v>0.1617219527633722</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2007634101635503</v>
+        <v>0.2003235225938798</v>
       </c>
     </row>
     <row r="32">
@@ -9921,19 +9921,19 @@
         <v>124510</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>100415</v>
+        <v>102591</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>152138</v>
+        <v>152062</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1298981941513107</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1047605458018966</v>
+        <v>0.1070298233227839</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1587217570310903</v>
+        <v>0.158641788905603</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>66</v>
@@ -9942,19 +9942,19 @@
         <v>54809</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41789</v>
+        <v>42714</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68781</v>
+        <v>70514</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0779855634643716</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05946015752834983</v>
+        <v>0.06077562235290537</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09786531702844958</v>
+        <v>0.1003316998944524</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>161</v>
@@ -9963,19 +9963,19 @@
         <v>179319</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>154786</v>
+        <v>154295</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>212433</v>
+        <v>210443</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1079371295654159</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09317005767233896</v>
+        <v>0.09287424223699581</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1278691104800485</v>
+        <v>0.1266714548920617</v>
       </c>
     </row>
     <row r="33">
